--- a/biology/Botanique/Leathesia/Leathesia.xlsx
+++ b/biology/Botanique/Leathesia/Leathesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leathesia est un genre d'algues brunes de la famille des Chordariaceae selon  AlgaeBase                                           (29 oct. 2012)[1], ou de celle des Corynophlaeaceae selon ITIS      (29 oct. 2012)[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leathesia est un genre d'algues brunes de la famille des Chordariaceae selon  AlgaeBase                                           (29 oct. 2012), ou de celle des Corynophlaeaceae selon ITIS      (29 oct. 2012). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (29 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (29 oct. 2012) :
 Leathesia baltica (Kützing) H.-S.Kim
 Leathesia cervicornis Berthold
 Leathesia crassipilosa Takamatsu
@@ -528,7 +542,7 @@
 Leathesia sadoensis Inagaki
 Leathesia saxicola Takamatsu
 Leathesia yezoensis Inagaki
-Selon Catalogue of Life                                  (29 oct. 2012)[3] :
+Selon Catalogue of Life                                  (29 oct. 2012) :
 Leathesia crassipilosa
 Leathesia difformioides
 Leathesia difformis
@@ -547,17 +561,17 @@
 Leathesia umbellata
 Leathesia verruculiformis
 Leathesia yezoensis
-Selon ITIS      (29 oct. 2012)[2] :
+Selon ITIS      (29 oct. 2012) :
 Leathesia difformis L.
 Leathesia nana S. &amp; G.
 Leathesia tuberiformis (J. E. Smith) Gray
-Selon NCBI  (29 oct. 2012)[4] :
+Selon NCBI  (29 oct. 2012) :
 Leathesia difformis
 Leathesia japonica
 Leathesia marina
 Leathesia pulvinata
 Leathesia sphaerocephala
-Selon World Register of Marine Species                               (29 oct. 2012)[5] :
+Selon World Register of Marine Species                               (29 oct. 2012) :
 Leathesia baltica (Kützing) H.-S.Kim, 2010
 Leathesia cervicornis Berthold, 1882
 Leathesia crassipilosa Takamatsu, 1939
